--- a/medicine/Enfance/Cœurs_vaillants/Cœurs_vaillants.xlsx
+++ b/medicine/Enfance/Cœurs_vaillants/Cœurs_vaillants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C5%93urs_vaillants</t>
+          <t>Cœurs_vaillants</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cœurs vaillants est un magazine hebdomadaire français catholique destiné à la jeunesse, fondé en 1929. Il est appelé ensuite J2 Jeunes de 1963 à 1970, puis Formule 1 de 1970 à 1981.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C5%93urs_vaillants</t>
+          <t>Cœurs_vaillants</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,14 +526,16 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 8 décembre 1929, l’Union des œuvres catholiques de France (UOCF) crée Cœurs vaillants, visant un lectorat âgé de 11 à 14 ans, qui sera le vivier d'un mouvement d’Église, le mouvement « Cœurs vaillants-Âmes vaillantes », créé en 1936 par les Pères Gaston Courtois et Jean Pihan. Le mouvement évoluera dans les années 1960 pour devenir l’Action catholique des enfants.
 Le périodique est lancé par:
 l’abbé Gabriel Bard, Fils de la Charité et membre de l’UOCF,
 Pierre Rougement (pseudonyme de l'abbé Henri Guesdon),
 Gaston Courtois, prêtre membre de la congrégation religieuse des Fils de la charité.
-En 1934, le magazine compte 360 000 lecteurs[1].
+En 1934, le magazine compte 360 000 lecteurs.
 En 1935, l’équipe est renforcée par l’arrivée de l’abbé Jean Pihan (ex-Jean Vaillant, 1912-1996), lui aussi membre des Fils de la charité.
 En 1936, naissance du mouvement Cœurs vaillants.
 En 1937, le magazine Âmes vaillantes, destiné aux filles, est créé (le n°1 est daté du 8 décembre 1937).
@@ -533,7 +547,7 @@
 De décembre 1945 à mai 1946, en attendant ce sésame, le magazine est remplacé par Tintin et Milou, supplément de la revue autorisée La Voix de l’Ouest, qui contient des bandes dessinées de Tintin et des récits d’aventures. À partir du 28 octobre 1948, Tintin paraît comme publication autonome.
 En 1963, édité par Fleurus Presse, les rédactions de Cœurs vaillants et Âmes vaillantes fusionnent et les revues prennent respectivement les noms de J2 Jeunes et J2 magazine, titres plus modernes dont le premier « J » rappelle le jour de publication, le jeudi, qui est alors une journée sans école en France, souvent consacrée au catéchisme. En fait, J2 correspond aussi, clin d'œil d'éditeurs ayant connu la guerre, à la même catégorie d’âge pour les tickets de rationnement que son lectorat.
 En 1970, le magazine est rebaptisé Formule 1.
-En 1981, Formule 1 cesse de paraître. Avec Djin (un magazine similaire édité par Fleurus Presse en direction du public féminin), il est remplacé le 1er septembre 1981 par un magazine unique : Triolo[2].
+En 1981, Formule 1 cesse de paraître. Avec Djin (un magazine similaire édité par Fleurus Presse en direction du public féminin), il est remplacé le 1er septembre 1981 par un magazine unique : Triolo.
 </t>
         </is>
       </c>
@@ -544,7 +558,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C5%93urs_vaillants</t>
+          <t>Cœurs_vaillants</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -564,8 +578,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Séries d'Hergé
-Le journal pour jeunes Cœurs vaillants est resté célèbre pour avoir été le premier à publier la bande dessinée Les Aventures de Tintin d'Hergé en France. Cependant, Hergé refusa de se plier au style qu'on lui proposait où chaque image devrait être commentée d'un texte à la manière des images d'Épinal ou de Christophe décrivant ce qu'on pouvait fort bien comprendre sans lui grâce aux phylactères, et dispersant l'attention du lecteur.
+          <t>Séries d'Hergé</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le journal pour jeunes Cœurs vaillants est resté célèbre pour avoir été le premier à publier la bande dessinée Les Aventures de Tintin d'Hergé en France. Cependant, Hergé refusa de se plier au style qu'on lui proposait où chaque image devrait être commentée d'un texte à la manière des images d'Épinal ou de Christophe décrivant ce qu'on pouvait fort bien comprendre sans lui grâce aux phylactères, et dispersant l'attention du lecteur.
 Les éditeurs, de leur côté, arguent que les « histoires à ballons », comme on les nomme à cette époque, ont mauvaise presse auprès des parents (on les accuse d'appauvrir le vocabulaire narratif) et que ce sont ceux-ci qui prennent les décisions d'achat.
 Par ailleurs, ils se montrent perplexes sur ce personnage de Tintin qui n'a pas de famille et ne semble pas vraiment travailler (journaliste, on ne le voit par exemple jamais à son bureau). Est-ce un exemple pour la jeunesse ?
 Un compromis sera trouvé par Hergé via la création d'autres personnages (Jo, Zette et Jocko, dont la famille est jugée plus conforme aux normes du moment), en échange du renoncement au texte explicatif de chaque image.
@@ -574,7 +593,7 @@
 Tintin au Congo : du no 12 (1932) au no 12 (1933). Reprise sous le titre : Tintin dans la brousse dans l'édition rurale du no 1 (1941) au no 43 (1942)
 Tintin en Amérique : du no 14 (1933) au no 21 (1934). Reprise sous le titre : Tintin chez les Indiens dans l'édition rurale du no 45 (1942) au no 11 (1944)
 Tintin en Orient (Les Cigares du pharaon) : du no 38 (1934) au no 46 (1935)
-Tintin en Extrême-orient[3] (Le Lotus bleu) : du no 47 (1935) au no 4 (1937)
+Tintin en Extrême-orient (Le Lotus bleu) : du no 47 (1935) au no 4 (1937)
 Tintin chez les Arumbayas (L'Oreille cassée) : du no 6 (1937) au no 12 (1938)
 Le Mystère de l'avion gris (L’Île noire) : du no 16 (1938) au no 18 (1939)
 Tintin en Syldavie (Le Sceptre d'Ottokar) : du no 20 (1939) au no 19 (1940)
@@ -582,9 +601,43 @@
 Le Crabe aux pinces d'or : du no 25 (1942) à 21 (1943)
 L'Étoile mystérieuse : du no 23 (1943) au no 6 (1944)
 Le Secret de La Licorne : nos 8 à 17 (1944). Cet épisode est interrompu à la Libération et ne sera pas repris. Résumé du Secret de La Licorne et du Trésor de Rackham le Rouge dans le no 1 (1946), 1re page
-Les Sept Boules de cristal : du no 1 (1946) au no 44 (1947) sauf nos 28-29
-Séries de Marijac [4]
- Jim Boum, chevalier du Far West : du no 25 (1931) au no 10 (1933)
+Les Sept Boules de cristal : du no 1 (1946) au no 44 (1947) sauf nos 28-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cœurs_vaillants</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C5%93urs_vaillants</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Le journal</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Séries de Marijac [4]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jim Boum, chevalier du Far West : du no 25 (1931) au no 10 (1933)
  Cesarin Pitchounet : du no 1 (1933) au no 38 (1934)
  Capitaine Pat'folle : du no 16 (1935) au no 4 (1936)
  Jim Boum : La Victoire de Fort Lincoln : du no 39 (1935) au no 4 (1936)
@@ -598,9 +651,43 @@
  Jim Boum : Le Secret des monts Latanas : du no 1 (1942) au no 29 (1942)
  Jim Boum : Le Sachem sans plume : du no 30 (1942) au no 7 (1943)
  Jim Boum : Le Chasseur de mustangs : du no 9 (1943) au no 38 (1943)
- Jim Boum : L'Énigme du canyon rouge : du no 40 (1943) au no 15 (1944)
-Autres séries
-Sylvain et Sylvette de Maurice Cuvillier (Édition rurale de 1941 à 1944)
+ Jim Boum : L'Énigme du canyon rouge : du no 40 (1943) au no 15 (1944)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cœurs_vaillants</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C5%93urs_vaillants</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Le journal</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres séries</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sylvain et Sylvette de Maurice Cuvillier (Édition rurale de 1941 à 1944)
 Croque-Noisette de Maurice Cuvillier (Édition rurale 1944, no 12 à 14)
 Après la guerre, le journal Cœurs vaillants continuera jusqu'en 1963, et publiera entre autres les séries suivantes :
 Frédéri le gardian, devenue en 1962 Fred le Vaillant (Robert Rigot et Guy Hempay)
@@ -623,31 +710,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>C%C5%93urs_vaillants</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cœurs_vaillants</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/C%C5%93urs_vaillants</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Le mouvement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
